--- a/data/Results/Retrieval Results Hard Questions.xlsx
+++ b/data/Results/Retrieval Results Hard Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1176153\Downloads\github\Thesis\data\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA3641C-656F-4BD0-8755-F8091AD0DC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02566FE-C381-49A4-968C-11FD567500CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="17">
   <si>
     <t>Precision@K</t>
   </si>
@@ -68,6 +68,15 @@
   <si>
     <t>no</t>
   </si>
+  <si>
+    <t>Hybrid (BM25) + rerank</t>
+  </si>
+  <si>
+    <t>Chroma + rerank</t>
+  </si>
+  <si>
+    <t>Average time per question (seconds)</t>
+  </si>
 </sst>
 </file>
 
@@ -106,7 +115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,13 +140,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -146,33 +198,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent4" xfId="2" builtinId="42"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
@@ -196,15 +265,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{734AFA6E-F8BC-4F96-A631-21E151D2F446}" name="Table13" displayName="Table13" ref="A1:F37" totalsRowShown="0" headerRowCellStyle="Hyperlink">
-  <autoFilter ref="A1:F37" xr:uid="{734AFA6E-F8BC-4F96-A631-21E151D2F446}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{734AFA6E-F8BC-4F96-A631-21E151D2F446}" name="Table13" displayName="Table13" ref="A1:G49" totalsRowShown="0" headerRowCellStyle="Hyperlink">
+  <autoFilter ref="A1:G49" xr:uid="{734AFA6E-F8BC-4F96-A631-21E151D2F446}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{0EB65381-8692-4048-8488-481C6D844E2D}" name="Models"/>
     <tableColumn id="3" xr3:uid="{0E553C3C-996A-4B97-A362-882B35A3DD55}" name="Metadata"/>
     <tableColumn id="4" xr3:uid="{6332285B-BF08-4756-9E58-CDDBB5B7A2F7}" name="Top_k"/>
-    <tableColumn id="5" xr3:uid="{94336F3D-125D-4D3F-9010-D2D184687881}" name="Precision@K" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{CF9B2E58-2DD6-4278-B751-5A32C0C9895C}" name="Recall@K" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{3BD8643D-D099-4CE2-9B40-16F17C276D34}" name="MRR@K" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{94336F3D-125D-4D3F-9010-D2D184687881}" name="Precision@K" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{CF9B2E58-2DD6-4278-B751-5A32C0C9895C}" name="Recall@K" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{3BD8643D-D099-4CE2-9B40-16F17C276D34}" name="MRR@K" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{CA1D6EAA-E23E-4F1C-B129-D6ED9A613F29}" name="Average time per question (seconds)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -473,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,11 +557,13 @@
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="33.21875" customWidth="1"/>
+    <col min="8" max="8" width="32.77734375" customWidth="1"/>
     <col min="9" max="9" width="15.5546875" customWidth="1"/>
     <col min="10" max="10" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -510,8 +582,11 @@
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -530,8 +605,11 @@
       <c r="F2" s="2">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -550,8 +628,11 @@
       <c r="F3" s="2">
         <v>0.27666666666666601</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -570,8 +651,11 @@
       <c r="F4" s="2">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -590,8 +674,11 @@
       <c r="F5" s="2">
         <v>0.37666666666666598</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -610,8 +697,11 @@
       <c r="F6" s="2">
         <v>0.34666666666666601</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -630,36 +720,42 @@
       <c r="F7" s="2">
         <v>0.47666666666666602</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2">
-        <v>0.38500000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="E8" s="2">
-        <v>0.3775</v>
+        <v>0.44</v>
       </c>
       <c r="F8" s="2">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.44</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2">
         <v>0.41</v>
@@ -668,12 +764,15 @@
         <v>0.41</v>
       </c>
       <c r="F9" s="2">
-        <v>0.28166666666666601</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.41</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>13</v>
@@ -682,18 +781,21 @@
         <v>4</v>
       </c>
       <c r="D10" s="2">
-        <v>0.43</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="E10" s="2">
-        <v>0.43</v>
+        <v>0.3775</v>
       </c>
       <c r="F10" s="2">
-        <v>0.36499999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.33</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>13</v>
@@ -702,18 +804,21 @@
         <v>4</v>
       </c>
       <c r="D11" s="2">
-        <v>0.5</v>
+        <v>0.41</v>
       </c>
       <c r="E11" s="2">
-        <v>0.495</v>
+        <v>0.41</v>
       </c>
       <c r="F11" s="2">
-        <v>0.36833333333333301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.28166666666666601</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>13</v>
@@ -722,18 +827,21 @@
         <v>4</v>
       </c>
       <c r="D12" s="2">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="E12" s="2">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="F12" s="2">
-        <v>0.34166666666666601</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
@@ -742,98 +850,113 @@
         <v>4</v>
       </c>
       <c r="D13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="2">
         <v>0.495</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
+        <v>0.36833333333333301</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.34166666666666601</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.495</v>
+      </c>
+      <c r="E15" s="2">
         <v>0.48749999999999999</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F15" s="2">
         <v>0.48499999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="G15" s="2">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="G16" s="2">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>6</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.41749999999999998</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.33799999999999902</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.41</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.41</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.28166666666666601</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.373</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.495</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.36833333333333301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>13</v>
@@ -842,18 +965,21 @@
         <v>5</v>
       </c>
       <c r="D18" s="2">
-        <v>0.5</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="E18" s="2">
-        <v>0.5</v>
+        <v>0.41749999999999998</v>
       </c>
       <c r="F18" s="2">
-        <v>0.35966666666666602</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.33799999999999902</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>13</v>
@@ -862,376 +988,708 @@
         <v>5</v>
       </c>
       <c r="D19" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.28166666666666601</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.373</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.495</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.36833333333333301</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.35966666666666602</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2">
         <v>0.54200000000000004</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E23" s="2">
         <v>0.53749999999999998</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F23" s="2">
         <v>0.49666666666666598</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="G23" s="2">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.460666666666666</v>
+      </c>
+      <c r="G24" s="22">
+        <v>7.02</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="G25" s="2">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="B26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="8">
         <v>3</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D26" s="9">
         <v>0.47</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E26" s="9">
         <v>0.45750000000000002</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F26" s="10">
         <v>0.42666666666666597</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="G26" s="18">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="7">
+      <c r="B27" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="13">
         <v>3</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D27" s="14">
         <v>0.41</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E27" s="14">
         <v>0.41</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F27" s="15">
         <v>0.31333333333333302</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="G27" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="B28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="8">
         <v>3</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D28" s="9">
         <v>0.73</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E28" s="9">
         <v>0.73</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F28" s="10">
         <v>0.62333333333333296</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+      <c r="G28" s="18">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="7">
+      <c r="B29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="13">
         <v>3</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D29" s="14">
         <v>0.67333333333333301</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E29" s="14">
         <v>0.66500000000000004</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F29" s="15">
         <v>0.53666666666666596</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="G29" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="B30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="8">
         <v>3</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D30" s="9">
         <v>0.64</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E30" s="9">
         <v>0.64</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F30" s="10">
         <v>0.48666666666666603</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="G30" s="18">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="7">
+      <c r="B31" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="13">
         <v>3</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D31" s="14">
         <v>0.83</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E31" s="14">
         <v>0.8175</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F31" s="15">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="G31" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="19">
+        <v>3</v>
+      </c>
+      <c r="D32" s="18">
+        <v>0.78</v>
+      </c>
+      <c r="E32" s="18">
+        <v>0.78</v>
+      </c>
+      <c r="F32" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="G32" s="18">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="4">
+      <c r="B34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="8">
         <v>4</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D34" s="9">
         <v>0.53</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E34" s="9">
         <v>0.52</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F34" s="10">
         <v>0.44666666666666599</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="G34" s="18">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="7">
+      <c r="B35" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="13">
         <v>4</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D35" s="14">
         <v>0.41</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E35" s="14">
         <v>0.41</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F35" s="15">
         <v>0.31333333333333302</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="G35" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="4">
+      <c r="B36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="8">
         <v>4</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D36" s="9">
         <v>0.76</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E36" s="9">
         <v>0.76</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F36" s="10">
         <v>0.62833333333333297</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="G36" s="18">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="7">
+      <c r="B37" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="13">
         <v>4</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D37" s="14">
         <v>0.75</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E37" s="14">
         <v>0.745</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F37" s="15">
         <v>0.56333333333333302</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="G37" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="4">
+      <c r="B38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="8">
         <v>4</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D38" s="9">
         <v>0.7</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E38" s="9">
         <v>0.7</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F38" s="10">
         <v>0.49666666666666598</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+      <c r="G38" s="18">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="7">
+      <c r="B39" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="13">
         <v>4</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D39" s="14">
         <v>0.9</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E39" s="14">
         <v>0.89</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F39" s="15">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="G39" s="2">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="19">
+        <v>4</v>
+      </c>
+      <c r="D40" s="18">
+        <v>0.81</v>
+      </c>
+      <c r="E40" s="18">
+        <v>0.81</v>
+      </c>
+      <c r="F40" s="18">
+        <v>0.81</v>
+      </c>
+      <c r="G40" s="18">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="G41" s="5">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="4">
+      <c r="B42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="8">
         <v>5</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D42" s="9">
         <v>0.59</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E42" s="9">
         <v>0.58250000000000002</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F42" s="10">
         <v>0.458666666666666</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+      <c r="G42" s="18">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="7">
+      <c r="B43" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="13">
         <v>5</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D43" s="14">
         <v>0.41</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E43" s="14">
         <v>0.41</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F43" s="15">
         <v>0.31333333333333302</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="G43" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="4">
+      <c r="B44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="8">
         <v>5</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D44" s="9">
         <v>0.84</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E44" s="9">
         <v>0.84</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F44" s="10">
         <v>0.64433333333333298</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
+      <c r="G44" s="18">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="7">
+      <c r="B45" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="13">
         <v>5</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D45" s="14">
         <v>0.82199999999999995</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E45" s="14">
         <v>0.8175</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F45" s="15">
         <v>0.56033333333333302</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="G45" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="4">
+      <c r="B46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="8">
         <v>5</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D46" s="9">
         <v>0.74</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E46" s="9">
         <v>0.74</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F46" s="16">
         <v>0.498</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
+      <c r="G46" s="18">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="7">
+      <c r="B47" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="13">
         <v>5</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D47" s="14">
         <v>0.98</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E47" s="17">
         <v>0.97250000000000003</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F47" s="15">
         <v>0.90500000000000003</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="G47" s="2">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="19">
+        <v>5</v>
+      </c>
+      <c r="D48" s="18">
+        <v>0.82</v>
+      </c>
+      <c r="E48" s="18">
+        <v>0.82</v>
+      </c>
+      <c r="F48" s="18">
+        <v>0.81</v>
+      </c>
+      <c r="G48" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="4">
+        <v>5</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="G49" s="5">
+        <v>3.4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/data/Results/Retrieval Results Hard Questions.xlsx
+++ b/data/Results/Retrieval Results Hard Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1176153\Downloads\github\Thesis\data\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02566FE-C381-49A4-968C-11FD567500CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF71BFB3-6F52-4446-B275-BE5968D0AAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection sqref="A1:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1388,7 +1388,7 @@
         <v>0.62833333333333297</v>
       </c>
       <c r="G36" s="18">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1457,7 +1457,7 @@
         <v>0.86</v>
       </c>
       <c r="G39" s="2">
-        <v>3.32</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1480,7 +1480,7 @@
         <v>0.81</v>
       </c>
       <c r="G40" s="18">
-        <v>5.42</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -1503,7 +1503,7 @@
         <v>0.76</v>
       </c>
       <c r="G41" s="5">
-        <v>2.84</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
